--- a/gropin/schema/metadataschema499.xlsx
+++ b/gropin/schema/metadataschema499.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Gropin growth model for Lactobacillus curvatus in/on MRS Broth (gropin ID: 499 )</t>
+          <t>Gropin secondary growth model for Lactobacillus curvatus in/on MRS Broth (gropin ID: 499 )</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>QRA model</t>
+          <t>Predictive</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>seq(7.007,14.985014985015,length.out=21)</t>
+          <t>seq(7.007,14.985014985015,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>seq(5.005,7.49250749250749,length.out=21)</t>
+          <t>seq(5.005,7.49250749250749,length.out=10)</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>seq(0.95095,0.969030969030969,length.out=21)</t>
+          <t>seq(0.95095,0.969030969030969,length.out=10)</t>
         </is>
       </c>
     </row>
